--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209953</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.07848821</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S2" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.5704967621155</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1929,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>38.12502610536668</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>22.51811698686332</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.2345149521091</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>62.43486741948629</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2248,55 +2250,55 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>5.782984192301438</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>50.05769526855297</v>
+        <v>176.6011153705619</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>153.8375610033828</v>
+        <v>98.09531059045651</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>115.7580399383184</v>
       </c>
       <c r="F33" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3323,10 +3325,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>63.24215619956615</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>128.2834663210033</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.7348634483604738</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y41" t="n">
-        <v>198.2885478252619</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>150.3246234415776</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>139.8619724295339</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="C44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>123.7922091700869</v>
       </c>
       <c r="D45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G5" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V5" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="C7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="D7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="E7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="F7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="G7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="H7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="X7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.2366994040306</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2366994040306</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>135.1878417126385</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>95.20412760976917</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>15.2366994040306</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>15.2366994040306</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>15.2366994040306</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.2366994040306</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U11" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V11" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W11" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C14" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D14" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E14" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5286895169144</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F18" t="n">
-        <v>138.0185621377561</v>
+        <v>181.5116738943863</v>
       </c>
       <c r="G18" t="n">
-        <v>93.44061023954541</v>
+        <v>42.7808484770018</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>45.45613755060546</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
+        <v>487.8483949674443</v>
+      </c>
+      <c r="N21" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N21" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>900.9916328646905</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
         <v>829.5248650203655</v>
@@ -5944,16 +5946,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -6026,13 +6028,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>480.5830965768621</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>331.6486869156108</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>172.4112319101553</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>25.87667393704029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>785.6721904898666</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>550.5200822581238</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>550.5200822581238</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="28">
@@ -6415,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>313.4034442885899</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>481.618781308658</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>481.618781308658</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.47235360622864</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C33" t="n">
-        <v>49.47235360622864</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="D33" t="n">
-        <v>49.47235360622864</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="E33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.47235360622864</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="34">
@@ -6841,16 +6843,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
         <v>829.5248650203655</v>
@@ -6962,16 +6964,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>495.259035872464</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W35" t="n">
         <v>19.28114311021272</v>
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>660.701031422288</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="C36" t="n">
-        <v>660.701031422288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>511.7666217610367</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>352.5291667555812</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7025,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X36" t="n">
-        <v>660.701031422288</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y36" t="n">
-        <v>660.701031422288</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>166.557987394803</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.02342942168795</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>496.626357174339</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>696.9178196240985</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>696.9178196240985</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>334.6450283837406</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="C42" t="n">
-        <v>160.1919991026136</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>160.1919991026136</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7246041887357</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>710.7118656093414</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>710.7118656093414</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>502.8603654038086</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y42" t="n">
-        <v>502.8603654038086</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.13413836268582</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>123.1178524655551</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C45" t="n">
-        <v>123.1178524655551</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>83.13413836268582</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>43.15042425981653</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>43.15042425981653</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>43.15042425981653</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>43.15042425981653</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>81.54278654139161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>120.7308247336138</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>158.3355078473624</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>123.1178524655551</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>123.1178524655551</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X45" t="n">
-        <v>123.1178524655551</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y45" t="n">
-        <v>123.1178524655551</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>13.245045875396</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,16 +8069,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>171.9589358120561</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>228.4841943116421</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S2" t="n">
-        <v>174.1545907582562</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22641,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>388.380409438123</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>130.8799781651428</v>
+        <v>135.5187846613368</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>126.952928467773</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>382.001266128267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>322.5431732532999</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23312,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>135.5187846613368</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>347.0648912442726</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303455</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23817,19 +23819,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>89.71732724963314</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23935,19 +23937,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>385.5205714063148</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>132.8346974412748</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>109.2483036843515</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24266,13 +24268,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>131.5605329709092</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,7 +24445,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.044882499874</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>175.8836868124218</v>
+        <v>49.34026671041289</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>18.87093798493297</v>
+        <v>74.61318839785923</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,10 +24818,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24919,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>41.8870405170825</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1799140023281</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25047,13 +25049,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25202,7 +25204,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,10 +25213,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>97.54843351316518</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>109.4663427887496</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>16.78574607238059</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25357,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>136.6086537148502</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y41" t="n">
-        <v>187.9493908307917</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>22.38387554673815</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>17.78310802586699</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,10 +25766,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C44" t="n">
-        <v>325.689014809167</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>315.0991646588424</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.3631590426092</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>48.9162898182288</v>
       </c>
       <c r="D45" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26068,22 +26070,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>276.3414769952266</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238464</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.2356367889</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752917</v>
+        <v>498660.652429213</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490577</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26335,13 +26337,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26352,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490578</v>
+        <v>108004.4371453661</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.1863689511</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803447</v>
+        <v>8602.403897583848</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388637</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.44492388637</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.04492388639</v>
+        <v>57019.70990182809</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388641</v>
+        <v>57019.70990182807</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235329</v>
+        <v>14106.06526851276</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866004</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518131</v>
+        <v>56521.58205899422</v>
       </c>
       <c r="K6" t="n">
+        <v>68068.50016898511</v>
+      </c>
+      <c r="L6" t="n">
         <v>68068.50016898509</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>68068.50016898509</v>
+      </c>
+      <c r="N6" t="n">
+        <v>68068.50016898511</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20688.62195152132</v>
+      </c>
+      <c r="P6" t="n">
         <v>68068.50016898512</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68068.50016898511</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68068.50016898508</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67813.25523849804</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56738.04492388637</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37865,13 +37867,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>86.35016038962375</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
